--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -571,6 +571,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,10 +588,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,7 +712,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.099430067775724"/>
+          <c:x val="0.0995147500577678"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -890,11 +890,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="47268535"/>
-        <c:axId val="58982220"/>
+        <c:axId val="90557903"/>
+        <c:axId val="22028816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47268535"/>
+        <c:axId val="90557903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +950,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58982220"/>
+        <c:crossAx val="22028816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58982220"/>
+        <c:axId val="22028816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47268535"/>
+        <c:crossAx val="90557903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,11 +1181,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="97105214"/>
-        <c:axId val="29297099"/>
+        <c:axId val="39284563"/>
+        <c:axId val="84143958"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97105214"/>
+        <c:axId val="39284563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29297099"/>
+        <c:crossAx val="84143958"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29297099"/>
+        <c:axId val="84143958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97105214"/>
+        <c:crossAx val="39284563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1399,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59403762"/>
-        <c:axId val="84953684"/>
+        <c:axId val="55320268"/>
+        <c:axId val="74352176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59403762"/>
+        <c:axId val="55320268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84953684"/>
+        <c:crossAx val="74352176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84953684"/>
+        <c:axId val="74352176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59403762"/>
+        <c:crossAx val="55320268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,10 +1538,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.144858420268256"/>
-          <c:y val="0.0301767495329789"/>
-          <c:w val="0.70849478390462"/>
-          <c:h val="0.865641615174594"/>
+          <c:x val="0.144869215291751"/>
+          <c:y val="0.0301810865191147"/>
+          <c:w val="0.708473060585737"/>
+          <c:h val="0.865478585800517"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1628,11 +1628,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85119763"/>
-        <c:axId val="64691743"/>
+        <c:axId val="10461124"/>
+        <c:axId val="59912227"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85119763"/>
+        <c:axId val="10461124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64691743"/>
+        <c:crossAx val="59912227"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +1668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64691743"/>
+        <c:axId val="59912227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1705,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85119763"/>
+        <c:crossAx val="10461124"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1766,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1777,7 +1777,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5334120" y="2295360"/>
-        <a:ext cx="4673880" cy="2744280"/>
+        <a:ext cx="4673520" cy="2743920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1796,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>847440</xdr:colOff>
+      <xdr:colOff>847080</xdr:colOff>
       <xdr:row>823</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1807,7 +1807,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="515160" y="133769160"/>
-        <a:ext cx="4551120" cy="2554200"/>
+        <a:ext cx="4550760" cy="2553840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1826,9 +1826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>106560</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>823</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1837,7 +1837,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5464080" y="133736760"/>
-        <a:ext cx="4574880" cy="2572560"/>
+        <a:ext cx="4574520" cy="2572200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1856,9 +1856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1027800</xdr:colOff>
+      <xdr:colOff>1027440</xdr:colOff>
       <xdr:row>823</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1867,7 +1867,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10452600" y="133813440"/>
-        <a:ext cx="4830840" cy="2504880"/>
+        <a:ext cx="4830480" cy="2504520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1888,10 +1888,10 @@
   <dimension ref="A4:AMJ834"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="36:36"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -2222,28 +2222,40 @@
       </c>
     </row>
     <row r="34" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="0" t="n">
-        <v>1858736</v>
-      </c>
-      <c r="G36" s="3" t="s">
+        <v>3123145</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="7"/>
       <c r="J36" s="0" t="n">
         <f aca="false">E36/H7</f>
-        <v>0.0715797723724913</v>
+        <v>0.120272060252927</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,47 +2276,47 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+    <row r="41" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3452,7 +3464,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>24762</v>
       </c>
@@ -3947,31 +3959,31 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="n">
+      <c r="A80" s="10" t="n">
         <f aca="false">AVERAGE(A42:A77)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B80" s="9" t="n">
+      <c r="B80" s="10" t="n">
         <f aca="false">AVERAGE(B42:B77)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="10" t="n">
         <f aca="false">AVERAGE(C42:C77)</f>
         <v>2016.5</v>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="J80" s="10" t="n">
         <f aca="false">AVERAGE(J42:J77)</f>
         <v>0.124527777777778</v>
       </c>
-      <c r="K80" s="9" t="n">
+      <c r="K80" s="10" t="n">
         <f aca="false">AVERAGE(K42:K77)</f>
         <v>0.836222222222223</v>
       </c>
-      <c r="L80" s="9" t="n">
+      <c r="L80" s="10" t="n">
         <f aca="false">AVERAGE(L42:L77)</f>
         <v>2898.92508333333</v>
       </c>
-      <c r="M80" s="9" t="n">
+      <c r="M80" s="10" t="n">
         <f aca="false">AVERAGE(M42:M77)</f>
         <v>3517.75</v>
       </c>
@@ -4099,47 +4111,47 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+    <row r="88" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K88" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M88" s="7" t="s">
+      <c r="M88" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N88" s="7" t="s">
+      <c r="N88" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5756,31 +5768,31 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="n">
+      <c r="A127" s="10" t="n">
         <f aca="false">AVERAGE(A89:A124)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B127" s="9" t="n">
+      <c r="B127" s="10" t="n">
         <f aca="false">AVERAGE(B89:B124)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C127" s="9" t="n">
+      <c r="C127" s="10" t="n">
         <f aca="false">AVERAGE(C89:C124)</f>
         <v>2016.5</v>
       </c>
-      <c r="J127" s="9" t="n">
+      <c r="J127" s="10" t="n">
         <f aca="false">AVERAGE(J89:J124)</f>
         <v>0.12875</v>
       </c>
-      <c r="K127" s="9" t="n">
+      <c r="K127" s="10" t="n">
         <f aca="false">AVERAGE(K89:K124)</f>
         <v>0.938361111111111</v>
       </c>
-      <c r="L127" s="9" t="n">
+      <c r="L127" s="10" t="n">
         <f aca="false">AVERAGE(L89:L124)</f>
         <v>11615.9186944444</v>
       </c>
-      <c r="M127" s="9" t="n">
+      <c r="M127" s="10" t="n">
         <f aca="false">AVERAGE(M89:M124)</f>
         <v>12514.1666666667</v>
       </c>
@@ -5908,47 +5920,47 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
+    <row r="135" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G135" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I135" s="7" t="s">
+      <c r="I135" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J135" s="7" t="s">
+      <c r="J135" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K135" s="7" t="s">
+      <c r="K135" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L135" s="7" t="s">
+      <c r="L135" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M135" s="7" t="s">
+      <c r="M135" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N135" s="7" t="s">
+      <c r="N135" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7560,36 +7572,36 @@
       <c r="L174" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M174" s="10" t="s">
+      <c r="M174" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="n">
+      <c r="A175" s="10" t="n">
         <f aca="false">AVERAGE(A137:A172)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B175" s="9" t="n">
+      <c r="B175" s="10" t="n">
         <f aca="false">AVERAGE(B137:B172)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C175" s="9" t="n">
+      <c r="C175" s="10" t="n">
         <f aca="false">AVERAGE(C137:C172)</f>
         <v>2016.5</v>
       </c>
-      <c r="J175" s="9" t="n">
+      <c r="J175" s="10" t="n">
         <f aca="false">AVERAGE(J137:J172)</f>
         <v>0.138194444444444</v>
       </c>
-      <c r="K175" s="9" t="n">
+      <c r="K175" s="10" t="n">
         <f aca="false">AVERAGE(K137:K172)</f>
         <v>0.794194444444444</v>
       </c>
-      <c r="L175" s="9" t="n">
+      <c r="L175" s="10" t="n">
         <f aca="false">AVERAGE(L137:L172)</f>
         <v>36319.4871111111</v>
       </c>
-      <c r="M175" s="9" t="n">
+      <c r="M175" s="10" t="n">
         <f aca="false">AVERAGE(M137:M172)</f>
         <v>45486.5833333333</v>
       </c>
@@ -7717,47 +7729,47 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
+    <row r="183" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E183" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G183" s="7" t="s">
+      <c r="G183" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I183" s="7" t="s">
+      <c r="I183" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J183" s="7" t="s">
+      <c r="J183" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K183" s="7" t="s">
+      <c r="K183" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L183" s="7" t="s">
+      <c r="L183" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M183" s="7" t="s">
+      <c r="M183" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N183" s="7" t="s">
+      <c r="N183" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9374,31 +9386,31 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="9" t="n">
+      <c r="A223" s="10" t="n">
         <f aca="false">AVERAGE(A185:A220)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B223" s="9" t="n">
+      <c r="B223" s="10" t="n">
         <f aca="false">AVERAGE(B185:B220)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C223" s="9" t="n">
+      <c r="C223" s="10" t="n">
         <f aca="false">AVERAGE(C185:C220)</f>
         <v>2016.5</v>
       </c>
-      <c r="J223" s="9" t="n">
+      <c r="J223" s="10" t="n">
         <f aca="false">AVERAGE(J185:J220)</f>
         <v>0.11675</v>
       </c>
-      <c r="K223" s="9" t="n">
+      <c r="K223" s="10" t="n">
         <f aca="false">AVERAGE(K185:K220)</f>
         <v>0.780694444444444</v>
       </c>
-      <c r="L223" s="9" t="n">
+      <c r="L223" s="10" t="n">
         <f aca="false">AVERAGE(L185:L220)</f>
         <v>81922.3983055556</v>
       </c>
-      <c r="M223" s="9" t="n">
+      <c r="M223" s="10" t="n">
         <f aca="false">AVERAGE(M185:M220)</f>
         <v>107027.638888889</v>
       </c>
@@ -9526,47 +9538,47 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="7" t="s">
+    <row r="231" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E231" s="7" t="s">
+      <c r="E231" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G231" s="7" t="s">
+      <c r="G231" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H231" s="7" t="s">
+      <c r="H231" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I231" s="7" t="s">
+      <c r="I231" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J231" s="7" t="s">
+      <c r="J231" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K231" s="7" t="s">
+      <c r="K231" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L231" s="7" t="s">
+      <c r="L231" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M231" s="7" t="s">
+      <c r="M231" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N231" s="7" t="s">
+      <c r="N231" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -11183,31 +11195,31 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="9" t="n">
+      <c r="A271" s="10" t="n">
         <f aca="false">AVERAGE(A233:A268)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B271" s="9" t="n">
+      <c r="B271" s="10" t="n">
         <f aca="false">AVERAGE(B233:B268)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C271" s="9" t="n">
+      <c r="C271" s="10" t="n">
         <f aca="false">AVERAGE(C233:C268)</f>
         <v>2016.5</v>
       </c>
-      <c r="J271" s="9" t="n">
+      <c r="J271" s="10" t="n">
         <f aca="false">AVERAGE(J233:J268)</f>
         <v>0.130694444444444</v>
       </c>
-      <c r="K271" s="9" t="n">
+      <c r="K271" s="10" t="n">
         <f aca="false">AVERAGE(K233:K268)</f>
         <v>0.922916666666667</v>
       </c>
-      <c r="L271" s="9" t="n">
+      <c r="L271" s="10" t="n">
         <f aca="false">AVERAGE(L233:L268)</f>
         <v>174931.259694445</v>
       </c>
-      <c r="M271" s="9" t="n">
+      <c r="M271" s="10" t="n">
         <f aca="false">AVERAGE(M233:M268)</f>
         <v>183555.444444444</v>
       </c>
@@ -11335,47 +11347,47 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="7" t="s">
+    <row r="279" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E279" s="7" t="s">
+      <c r="E279" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="F279" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="G279" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H279" s="7" t="s">
+      <c r="H279" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I279" s="7" t="s">
+      <c r="I279" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J279" s="7" t="s">
+      <c r="J279" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K279" s="7" t="s">
+      <c r="K279" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L279" s="7" t="s">
+      <c r="L279" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M279" s="7" t="s">
+      <c r="M279" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N279" s="7" t="s">
+      <c r="N279" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12992,31 +13004,31 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="9" t="n">
+      <c r="A319" s="10" t="n">
         <f aca="false">AVERAGE(A281:A316)</f>
         <v>24329.5833333333</v>
       </c>
-      <c r="B319" s="9" t="n">
+      <c r="B319" s="10" t="n">
         <f aca="false">AVERAGE(B281:B316)</f>
         <v>22313.0833333333</v>
       </c>
-      <c r="C319" s="9" t="n">
+      <c r="C319" s="10" t="n">
         <f aca="false">AVERAGE(C281:C316)</f>
         <v>2016.5</v>
       </c>
-      <c r="J319" s="9" t="n">
+      <c r="J319" s="10" t="n">
         <f aca="false">AVERAGE(J281:J316)</f>
         <v>0.0959722222222223</v>
       </c>
-      <c r="K319" s="9" t="n">
+      <c r="K319" s="10" t="n">
         <f aca="false">AVERAGE(K281:K316)</f>
         <v>0.823666666666666</v>
       </c>
-      <c r="L319" s="9" t="n">
+      <c r="L319" s="10" t="n">
         <f aca="false">AVERAGE(L281:L316)</f>
         <v>425601.250611111</v>
       </c>
-      <c r="M319" s="9" t="n">
+      <c r="M319" s="10" t="n">
         <f aca="false">AVERAGE(M281:M316)</f>
         <v>477173.416666667</v>
       </c>
@@ -13128,41 +13140,41 @@
       </c>
     </row>
     <row r="325" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="11" t="s">
+      <c r="A325" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B325" s="11"/>
-      <c r="C325" s="11"/>
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
-      <c r="F325" s="11"/>
-      <c r="G325" s="11"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+      <c r="G325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B326" s="9" t="n">
+      <c r="B326" s="10" t="n">
         <f aca="false">K80</f>
         <v>0.836222222222223</v>
       </c>
-      <c r="C326" s="9" t="n">
+      <c r="C326" s="10" t="n">
         <f aca="false">K127</f>
         <v>0.938361111111111</v>
       </c>
-      <c r="D326" s="9" t="n">
+      <c r="D326" s="10" t="n">
         <f aca="false">K175</f>
         <v>0.794194444444444</v>
       </c>
-      <c r="E326" s="9" t="n">
+      <c r="E326" s="10" t="n">
         <f aca="false">K223</f>
         <v>0.780694444444444</v>
       </c>
-      <c r="F326" s="9" t="n">
+      <c r="F326" s="10" t="n">
         <f aca="false">K271</f>
         <v>0.922916666666667</v>
       </c>
-      <c r="G326" s="9" t="n">
+      <c r="G326" s="10" t="n">
         <f aca="false">K319</f>
         <v>0.823666666666666</v>
       </c>
@@ -13229,27 +13241,27 @@
       <c r="A329" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B329" s="9" t="n">
+      <c r="B329" s="10" t="n">
         <f aca="false">J80</f>
         <v>0.124527777777778</v>
       </c>
-      <c r="C329" s="9" t="n">
+      <c r="C329" s="10" t="n">
         <f aca="false">J127</f>
         <v>0.12875</v>
       </c>
-      <c r="D329" s="9" t="n">
+      <c r="D329" s="10" t="n">
         <f aca="false">J175</f>
         <v>0.138194444444444</v>
       </c>
-      <c r="E329" s="9" t="n">
+      <c r="E329" s="10" t="n">
         <f aca="false">J223</f>
         <v>0.11675</v>
       </c>
-      <c r="F329" s="9" t="n">
+      <c r="F329" s="10" t="n">
         <f aca="false">J271</f>
         <v>0.130694444444444</v>
       </c>
-      <c r="G329" s="9" t="n">
+      <c r="G329" s="10" t="n">
         <f aca="false">J319</f>
         <v>0.0959722222222223</v>
       </c>
@@ -13258,27 +13270,27 @@
       <c r="A330" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B330" s="9" t="n">
+      <c r="B330" s="10" t="n">
         <f aca="false">J82</f>
         <v>0.001</v>
       </c>
-      <c r="C330" s="9" t="n">
+      <c r="C330" s="10" t="n">
         <f aca="false">J129</f>
         <v>0.001</v>
       </c>
-      <c r="D330" s="9" t="n">
+      <c r="D330" s="10" t="n">
         <f aca="false">J177</f>
         <v>0.001</v>
       </c>
-      <c r="E330" s="9" t="n">
+      <c r="E330" s="10" t="n">
         <f aca="false">J225</f>
         <v>0.001</v>
       </c>
-      <c r="F330" s="9" t="n">
+      <c r="F330" s="10" t="n">
         <f aca="false">J273</f>
         <v>0.001</v>
       </c>
-      <c r="G330" s="9" t="n">
+      <c r="G330" s="10" t="n">
         <f aca="false">J321</f>
         <v>0.001</v>
       </c>
@@ -13287,27 +13299,27 @@
       <c r="A331" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B331" s="9" t="n">
+      <c r="B331" s="10" t="n">
         <f aca="false">J84</f>
         <v>0.389</v>
       </c>
-      <c r="C331" s="9" t="n">
+      <c r="C331" s="10" t="n">
         <f aca="false">J131</f>
         <v>0.42</v>
       </c>
-      <c r="D331" s="9" t="n">
+      <c r="D331" s="10" t="n">
         <f aca="false">J179</f>
         <v>0.364</v>
       </c>
-      <c r="E331" s="9" t="n">
+      <c r="E331" s="10" t="n">
         <f aca="false">J227</f>
         <v>0.316</v>
       </c>
-      <c r="F331" s="9" t="n">
+      <c r="F331" s="10" t="n">
         <f aca="false">J275</f>
         <v>0.72</v>
       </c>
-      <c r="G331" s="9" t="n">
+      <c r="G331" s="10" t="n">
         <f aca="false">J323</f>
         <v>0.281</v>
       </c>
@@ -14357,15 +14369,15 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F380" s="9" t="n">
+      <c r="F380" s="10" t="n">
         <f aca="false">AVERAGE(F343:F378)</f>
         <v>0.115388888888889</v>
       </c>
-      <c r="G380" s="9" t="n">
+      <c r="G380" s="10" t="n">
         <f aca="false">AVERAGE(G343:G378)</f>
         <v>64903.1076666667</v>
       </c>
-      <c r="H380" s="9" t="n">
+      <c r="H380" s="10" t="n">
         <f aca="false">AVERAGE(H343:H378)</f>
         <v>75079.7777777778</v>
       </c>
@@ -14382,15 +14394,15 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F382" s="9" t="n">
+      <c r="F382" s="10" t="n">
         <f aca="false">MIN(F343:F378)</f>
         <v>0.001</v>
       </c>
-      <c r="G382" s="9" t="n">
+      <c r="G382" s="10" t="n">
         <f aca="false">MIN(G343:G378)</f>
         <v>28571.429</v>
       </c>
-      <c r="H382" s="9" t="n">
+      <c r="H382" s="10" t="n">
         <f aca="false">MIN(H343:H378)</f>
         <v>47600</v>
       </c>
@@ -15376,15 +15388,15 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F425" s="9" t="n">
+      <c r="F425" s="10" t="n">
         <f aca="false">AVERAGE(F388:F423)</f>
         <v>0.132611111111111</v>
       </c>
-      <c r="G425" s="9" t="n">
+      <c r="G425" s="10" t="n">
         <f aca="false">AVERAGE(G388:G423)</f>
         <v>71101.9471666667</v>
       </c>
-      <c r="H425" s="9" t="n">
+      <c r="H425" s="10" t="n">
         <f aca="false">AVERAGE(H388:H423)</f>
         <v>80582.6944444444</v>
       </c>
@@ -15401,11 +15413,11 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F427" s="9" t="n">
+      <c r="F427" s="10" t="n">
         <f aca="false">MIN(F388:F423)</f>
         <v>0.001</v>
       </c>
-      <c r="G427" s="9" t="n">
+      <c r="G427" s="10" t="n">
         <f aca="false">MIN(G388:G423)</f>
         <v>29850.746</v>
       </c>
@@ -15426,11 +15438,11 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F429" s="9" t="n">
+      <c r="F429" s="10" t="n">
         <f aca="false">MAX(F388:F423)</f>
         <v>0.447</v>
       </c>
-      <c r="G429" s="9" t="n">
+      <c r="G429" s="10" t="n">
         <f aca="false">MAX(G388:G423)</f>
         <v>95238.095</v>
       </c>
@@ -16395,15 +16407,15 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F471" s="9" t="n">
+      <c r="F471" s="10" t="n">
         <f aca="false">AVERAGE(F434:F469)</f>
         <v>0.117472222222222</v>
       </c>
-      <c r="G471" s="9" t="n">
+      <c r="G471" s="10" t="n">
         <f aca="false">AVERAGE(G434:G469)</f>
         <v>56204.2224166667</v>
       </c>
-      <c r="H471" s="9" t="n">
+      <c r="H471" s="10" t="n">
         <f aca="false">AVERAGE(H434:H469)</f>
         <v>73560.3055555556</v>
       </c>
@@ -16420,11 +16432,11 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F473" s="9" t="n">
+      <c r="F473" s="10" t="n">
         <f aca="false">MIN(F434:F469)</f>
         <v>0.001</v>
       </c>
-      <c r="G473" s="9" t="n">
+      <c r="G473" s="10" t="n">
         <f aca="false">MIN(G434:G469)</f>
         <v>19230.769</v>
       </c>
@@ -16445,11 +16457,11 @@
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F475" s="9" t="n">
+      <c r="F475" s="10" t="n">
         <f aca="false">MAX(F434:F469)</f>
         <v>0.381</v>
       </c>
-      <c r="G475" s="9" t="n">
+      <c r="G475" s="10" t="n">
         <f aca="false">MAX(G434:G469)</f>
         <v>71428.571</v>
       </c>
@@ -17414,15 +17426,15 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F517" s="9" t="n">
+      <c r="F517" s="10" t="n">
         <f aca="false">AVERAGE(F480:F515)</f>
         <v>0.131194444444445</v>
       </c>
-      <c r="G517" s="9" t="n">
+      <c r="G517" s="10" t="n">
         <f aca="false">AVERAGE(G480:G515)</f>
         <v>69092.9439166666</v>
       </c>
-      <c r="H517" s="9" t="n">
+      <c r="H517" s="10" t="n">
         <f aca="false">AVERAGE(H480:H515)</f>
         <v>85810.5555555556</v>
       </c>
@@ -17439,11 +17451,11 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F519" s="9" t="n">
+      <c r="F519" s="10" t="n">
         <f aca="false">MIN(F480:F515)</f>
         <v>0.001</v>
       </c>
-      <c r="G519" s="9" t="n">
+      <c r="G519" s="10" t="n">
         <f aca="false">MIN(G480:G515)</f>
         <v>17857.143</v>
       </c>
@@ -17464,11 +17476,11 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F521" s="9" t="n">
+      <c r="F521" s="10" t="n">
         <f aca="false">MAX(F480:F515)</f>
         <v>0.468</v>
       </c>
-      <c r="G521" s="9" t="n">
+      <c r="G521" s="10" t="n">
         <f aca="false">MAX(G480:G515)</f>
         <v>95238.095</v>
       </c>
@@ -18433,15 +18445,15 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F562" s="9" t="n">
+      <c r="F562" s="10" t="n">
         <f aca="false">AVERAGE(F525:F560)</f>
         <v>0.108583333333333</v>
       </c>
-      <c r="G562" s="9" t="n">
+      <c r="G562" s="10" t="n">
         <f aca="false">AVERAGE(G525:G560)</f>
         <v>67547.6302222222</v>
       </c>
-      <c r="H562" s="9" t="n">
+      <c r="H562" s="10" t="n">
         <f aca="false">AVERAGE(H525:H560)</f>
         <v>85727.75</v>
       </c>
@@ -18458,11 +18470,11 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F564" s="9" t="n">
+      <c r="F564" s="10" t="n">
         <f aca="false">MIN(F525:F560)</f>
         <v>0.001</v>
       </c>
-      <c r="G564" s="9" t="n">
+      <c r="G564" s="10" t="n">
         <f aca="false">MIN(G525:G560)</f>
         <v>19047.619</v>
       </c>
@@ -18483,11 +18495,11 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F566" s="9" t="n">
+      <c r="F566" s="10" t="n">
         <f aca="false">MAX(F525:F560)</f>
         <v>0.358</v>
       </c>
-      <c r="G566" s="9" t="n">
+      <c r="G566" s="10" t="n">
         <f aca="false">MAX(G525:G560)</f>
         <v>90909.091</v>
       </c>
@@ -19452,15 +19464,15 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F607" s="9" t="n">
+      <c r="F607" s="10" t="n">
         <f aca="false">AVERAGE(F570:F605)</f>
         <v>0.130722222222222</v>
       </c>
-      <c r="G607" s="9" t="n">
+      <c r="G607" s="10" t="n">
         <f aca="false">AVERAGE(G570:G605)</f>
         <v>82119.3361944445</v>
       </c>
-      <c r="H607" s="9" t="n">
+      <c r="H607" s="10" t="n">
         <f aca="false">AVERAGE(H570:H605)</f>
         <v>104241.388888889</v>
       </c>
@@ -19477,11 +19489,11 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F609" s="9" t="n">
+      <c r="F609" s="10" t="n">
         <f aca="false">MIN(F570:F605)</f>
         <v>0.001</v>
       </c>
-      <c r="G609" s="9" t="n">
+      <c r="G609" s="10" t="n">
         <f aca="false">MIN(G570:G605)</f>
         <v>31746.032</v>
       </c>
@@ -19502,11 +19514,11 @@
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F611" s="9" t="n">
+      <c r="F611" s="10" t="n">
         <f aca="false">MAX(F570:F605)</f>
         <v>0.493</v>
       </c>
-      <c r="G611" s="9" t="n">
+      <c r="G611" s="10" t="n">
         <f aca="false">MAX(G570:G605)</f>
         <v>105263.158</v>
       </c>
@@ -20468,15 +20480,15 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F652" s="9" t="n">
+      <c r="F652" s="10" t="n">
         <f aca="false">AVERAGE(F615:F650)</f>
         <v>0.136277777777778</v>
       </c>
-      <c r="G652" s="9" t="n">
+      <c r="G652" s="10" t="n">
         <f aca="false">AVERAGE(G615:G650)</f>
         <v>80802.3337777778</v>
       </c>
-      <c r="H652" s="9" t="n">
+      <c r="H652" s="10" t="n">
         <f aca="false">AVERAGE(H615:H650)</f>
         <v>104682.75</v>
       </c>
@@ -20493,11 +20505,11 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F654" s="9" t="n">
+      <c r="F654" s="10" t="n">
         <f aca="false">MIN(F615:F650)</f>
         <v>0.001</v>
       </c>
-      <c r="G654" s="9" t="n">
+      <c r="G654" s="10" t="n">
         <f aca="false">MIN(G615:G650)</f>
         <v>32258.065</v>
       </c>
@@ -20518,11 +20530,11 @@
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F656" s="9" t="n">
+      <c r="F656" s="10" t="n">
         <f aca="false">MAX(F615:F650)</f>
         <v>0.369</v>
       </c>
-      <c r="G656" s="9" t="n">
+      <c r="G656" s="10" t="n">
         <f aca="false">MAX(G615:G650)</f>
         <v>117647.059</v>
       </c>
@@ -21484,15 +21496,15 @@
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F697" s="9" t="n">
+      <c r="F697" s="10" t="n">
         <f aca="false">AVERAGE(F660:F695)</f>
         <v>0.117583333333333</v>
       </c>
-      <c r="G697" s="9" t="n">
+      <c r="G697" s="10" t="n">
         <f aca="false">AVERAGE(G660:G695)</f>
         <v>89191.4260555556</v>
       </c>
-      <c r="H697" s="9" t="n">
+      <c r="H697" s="10" t="n">
         <f aca="false">AVERAGE(H660:H695)</f>
         <v>110376.25</v>
       </c>
@@ -21509,11 +21521,11 @@
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F699" s="9" t="n">
+      <c r="F699" s="10" t="n">
         <f aca="false">MIN(F660:F695)</f>
         <v>0.001</v>
       </c>
-      <c r="G699" s="9" t="n">
+      <c r="G699" s="10" t="n">
         <f aca="false">MIN(G660:G695)</f>
         <v>28169.014</v>
       </c>
@@ -21534,11 +21546,11 @@
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F701" s="9" t="n">
+      <c r="F701" s="10" t="n">
         <f aca="false">MAX(F660:F695)</f>
         <v>0.407</v>
       </c>
-      <c r="G701" s="9" t="n">
+      <c r="G701" s="10" t="n">
         <f aca="false">MAX(G660:G695)</f>
         <v>125000</v>
       </c>
@@ -22500,15 +22512,15 @@
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F743" s="9" t="n">
+      <c r="F743" s="10" t="n">
         <f aca="false">AVERAGE(F706:F741)</f>
         <v>0.111277777777778</v>
       </c>
-      <c r="G743" s="9" t="n">
+      <c r="G743" s="10" t="n">
         <f aca="false">AVERAGE(G706:G741)</f>
         <v>48475.0563611111</v>
       </c>
-      <c r="H743" s="9" t="n">
+      <c r="H743" s="10" t="n">
         <f aca="false">AVERAGE(H706:H741)</f>
         <v>64995.5</v>
       </c>
@@ -22525,11 +22537,11 @@
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F745" s="9" t="n">
+      <c r="F745" s="10" t="n">
         <f aca="false">MIN(F706:F741)</f>
         <v>0.001</v>
       </c>
-      <c r="G745" s="9" t="n">
+      <c r="G745" s="10" t="n">
         <f aca="false">MIN(G706:G741)</f>
         <v>14705.882</v>
       </c>
@@ -22550,11 +22562,11 @@
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F747" s="9" t="n">
+      <c r="F747" s="10" t="n">
         <f aca="false">MAX(F706:F741)</f>
         <v>0.378</v>
       </c>
-      <c r="G747" s="9" t="n">
+      <c r="G747" s="10" t="n">
         <f aca="false">MAX(G706:G741)</f>
         <v>68965.517</v>
       </c>
@@ -23516,15 +23528,15 @@
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F788" s="9" t="n">
+      <c r="F788" s="10" t="n">
         <f aca="false">AVERAGE(F751:F786)</f>
         <v>0.161611111111111</v>
       </c>
-      <c r="G788" s="9" t="n">
+      <c r="G788" s="10" t="n">
         <f aca="false">AVERAGE(G751:G786)</f>
         <v>49813.1551944444</v>
       </c>
-      <c r="H788" s="9" t="n">
+      <c r="H788" s="10" t="n">
         <f aca="false">AVERAGE(H751:H786)</f>
         <v>55575.3611111111</v>
       </c>
@@ -23541,11 +23553,11 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F790" s="9" t="n">
+      <c r="F790" s="10" t="n">
         <f aca="false">MIN(F751:F786)</f>
         <v>0.001</v>
       </c>
-      <c r="G790" s="9" t="n">
+      <c r="G790" s="10" t="n">
         <f aca="false">MIN(G751:G786)</f>
         <v>16000</v>
       </c>
@@ -23566,11 +23578,11 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F792" s="9" t="n">
+      <c r="F792" s="10" t="n">
         <f aca="false">MAX(F751:F786)</f>
         <v>0.462</v>
       </c>
-      <c r="G792" s="9" t="n">
+      <c r="G792" s="10" t="n">
         <f aca="false">MAX(G751:G786)</f>
         <v>62500</v>
       </c>
@@ -23608,19 +23620,19 @@
       <c r="A801" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B801" s="9" t="n">
+      <c r="B801" s="10" t="n">
         <f aca="false">F380</f>
         <v>0.115388888888889</v>
       </c>
-      <c r="C801" s="9" t="n">
+      <c r="C801" s="10" t="n">
         <f aca="false">F425</f>
         <v>0.132611111111111</v>
       </c>
-      <c r="D801" s="9" t="n">
+      <c r="D801" s="10" t="n">
         <f aca="false">F471</f>
         <v>0.117472222222222</v>
       </c>
-      <c r="E801" s="9" t="n">
+      <c r="E801" s="10" t="n">
         <f aca="false">F517</f>
         <v>0.131194444444445</v>
       </c>
@@ -23628,31 +23640,31 @@
         <f aca="false">F562</f>
         <v>0.108583333333333</v>
       </c>
-      <c r="G801" s="9" t="n">
+      <c r="G801" s="10" t="n">
         <f aca="false">F607</f>
         <v>0.130722222222222</v>
       </c>
-      <c r="H801" s="9" t="n">
+      <c r="H801" s="10" t="n">
         <f aca="false">F652</f>
         <v>0.136277777777778</v>
       </c>
-      <c r="I801" s="9" t="n">
+      <c r="I801" s="10" t="n">
         <f aca="false">F697</f>
         <v>0.117583333333333</v>
       </c>
-      <c r="J801" s="9" t="n">
+      <c r="J801" s="10" t="n">
         <f aca="false">F743</f>
         <v>0.111277777777778</v>
       </c>
-      <c r="K801" s="9" t="n">
+      <c r="K801" s="10" t="n">
         <f aca="false">F788</f>
         <v>0.161611111111111</v>
       </c>
-      <c r="L801" s="9" t="n">
+      <c r="L801" s="10" t="n">
         <f aca="false">MIN(B801:K801)</f>
         <v>0.108583333333333</v>
       </c>
-      <c r="M801" s="9" t="n">
+      <c r="M801" s="10" t="n">
         <f aca="false">MAX(B801:K801)</f>
         <v>0.161611111111111</v>
       </c>

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="260">
+  <si>
+    <t xml:space="preserve">diff f1, f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min f1, f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio diff/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1005_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/1005.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1005.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/dinfr09.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/dinfr09.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1ddcl10.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/1ddcl10.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1005_3.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1vkip11_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/1vkip11.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1vkip11.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1ws1010.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/1ws1011.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/1ws1010.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/2hcth10.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/allfiles/2hcth10.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1vkip11_2.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1ws1010_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/2hcth10_1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1vkip11_3.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/1ws1010_3.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/search_ld/2hcth10_3.txt</t>
+  </si>
   <si>
     <t xml:space="preserve">Effect of Compression Rate On Processing Speed For 18,216 Files, 7.16GB</t>
   </si>
@@ -322,6 +399,9 @@
     <t xml:space="preserve">Min Error</t>
   </si>
   <si>
+    <t xml:space="preserve">`</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max Error</t>
   </si>
   <si>
@@ -373,7 +453,6 @@
         <sz val="15"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ten Consecutive Values of C show Significant Variation In Performance And Accuracy.  Best Results in </t>
     </r>
@@ -384,7 +463,6 @@
         <color rgb="FFC9211E"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Red</t>
     </r>
@@ -394,7 +472,6 @@
         <sz val="15"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.  The best performance and the most accurate had mediocre accuracy and speed respecitvely.</t>
     </r>
@@ -408,6 +485,351 @@
   <si>
     <t xml:space="preserve">C </t>
   </si>
+  <si>
+    <t xml:space="preserve">Artwork table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArtworkEditon table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShowHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArtworkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artwork_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SortOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaleStatusId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallery_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_from_modifier_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriceFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_to_modifier_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriceFromInUsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created_By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriceTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed_By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PriceToInUsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misnamed Price_to_usd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsPriceVisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsDimensionsVary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaleStatus_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvarchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artwork_type_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trading_Status_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artwork_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artist_modifier_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created_Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed_Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelistedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price_USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price_to_usd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isExcludeFromAllArtworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsInstallationView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeasurementType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_from_addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_to_addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exhibition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherLable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_modifier_To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creditline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workyear_modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after_to_modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after_from_modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artwork_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/demo/input-1/xas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		24548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		24591</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		24549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		25082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		24301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./data/demo/input-1/xay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		24546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/demo/input-1/xab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		20438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/demo/input-1/xac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		20481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/demo/input-1/xaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		20439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./data/demo/input-1/xax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		19846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stdev</t>
+  </si>
 </sst>
 </file>
 
@@ -420,12 +842,11 @@
     <numFmt numFmtId="167" formatCode="#,##0.00\ ;\(#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -447,27 +868,23 @@
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -475,22 +892,15 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -500,12 +910,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -542,7 +958,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,6 +1024,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,7 +1132,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0995147500577678"/>
+          <c:x val="0.0996764751193961"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -890,11 +1310,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="90557903"/>
-        <c:axId val="22028816"/>
+        <c:axId val="78398550"/>
+        <c:axId val="2856361"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90557903"/>
+        <c:axId val="78398550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1370,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22028816"/>
+        <c:crossAx val="2856361"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +1378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22028816"/>
+        <c:axId val="2856361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90557903"/>
+        <c:crossAx val="78398550"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$801:$A$801</c:f>
+              <c:f>Sheet1!$A$801</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1181,11 +1601,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39284563"/>
-        <c:axId val="84143958"/>
+        <c:axId val="96175182"/>
+        <c:axId val="70506344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39284563"/>
+        <c:axId val="96175182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84143958"/>
+        <c:crossAx val="70506344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84143958"/>
+        <c:axId val="70506344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1678,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39284563"/>
+        <c:crossAx val="96175182"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1819,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55320268"/>
-        <c:axId val="74352176"/>
+        <c:axId val="95302817"/>
+        <c:axId val="79643603"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55320268"/>
+        <c:axId val="95302817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1851,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74352176"/>
+        <c:crossAx val="79643603"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74352176"/>
+        <c:axId val="79643603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1896,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55320268"/>
+        <c:crossAx val="95302817"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,10 +1958,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.144869215291751"/>
-          <c:y val="0.0301810865191147"/>
-          <c:w val="0.708473060585737"/>
-          <c:h val="0.865478585800517"/>
+          <c:x val="0.144880011924281"/>
+          <c:y val="0.0301854247520483"/>
+          <c:w val="0.708451334028916"/>
+          <c:h val="0.865315509558718"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1628,11 +2048,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10461124"/>
-        <c:axId val="59912227"/>
+        <c:axId val="62804800"/>
+        <c:axId val="89931037"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10461124"/>
+        <c:axId val="62804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +2080,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59912227"/>
+        <c:crossAx val="89931037"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59912227"/>
+        <c:axId val="89931037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +2125,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10461124"/>
+        <c:crossAx val="62804800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,7 +2180,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
@@ -1768,7 +2188,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>75240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1776,8 +2196,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5334120" y="2295360"/>
-        <a:ext cx="4673520" cy="2743920"/>
+        <a:off x="5334480" y="2295360"/>
+        <a:ext cx="4673160" cy="2743560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1796,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>847080</xdr:colOff>
+      <xdr:colOff>846720</xdr:colOff>
       <xdr:row>823</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1807,7 +2227,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="515160" y="133769160"/>
-        <a:ext cx="4550760" cy="2553840"/>
+        <a:ext cx="4550400" cy="2553480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1820,7 +2240,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>139680</xdr:colOff>
       <xdr:row>807</xdr:row>
       <xdr:rowOff>125280</xdr:rowOff>
     </xdr:from>
@@ -1828,7 +2248,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>106200</xdr:colOff>
       <xdr:row>823</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1836,8 +2256,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5464080" y="133736760"/>
-        <a:ext cx="4574520" cy="2572200"/>
+        <a:off x="5464440" y="133736760"/>
+        <a:ext cx="4574160" cy="2571840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1850,9 +2270,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>520200</xdr:colOff>
+      <xdr:colOff>520560</xdr:colOff>
       <xdr:row>808</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -1866,8 +2286,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10452600" y="133813440"/>
-        <a:ext cx="4830480" cy="2504520"/>
+        <a:off x="10452960" y="133813800"/>
+        <a:ext cx="4830120" cy="2504160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1885,13 +2305,1008 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:AMJ834"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1609" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1642" activeCellId="0" sqref="1617:1642"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>191492</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">ABS(D3-E3)</f>
+        <v>25509</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">MIN(D3:E3)</f>
+        <v>191492</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">F3/G3</f>
+        <v>0.133211831303658</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>25509</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.889025893958076</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>198038</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">ABS(D4-E4)</f>
+        <v>18963</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">MIN(D4:E4)</f>
+        <v>198038</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">F4/G4</f>
+        <v>0.0957543501752189</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>18963</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>556384</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>566894</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">ABS(D5-E5)</f>
+        <v>10510</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">MIN(D5:E5)</f>
+        <v>556384</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">F5/G5</f>
+        <v>0.0188898314832921</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10510</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.975381585425899</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>220006</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>220006</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">ABS(D6-E6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">MIN(D6:E6)</f>
+        <v>220006</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">F6/G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>160609</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">ABS(D7-E7)</f>
+        <v>56392</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">MIN(D7:E7)</f>
+        <v>160609</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">F7/G7</f>
+        <v>0.351113573959118</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>84102</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.574344023323615</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1557789</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">ABS(D8-E8)</f>
+        <v>103984</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">MIN(D8:E8)</f>
+        <v>1557789</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">F8/G8</f>
+        <v>0.0667510169862542</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1677</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1271</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>103984</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.92294991744634</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1650036</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">ABS(D9-E9)</f>
+        <v>11737</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">MIN(D9:E9)</f>
+        <v>1650036</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">F9/G9</f>
+        <v>0.00711317813671944</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1766</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>11737</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.992772245422422</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>133178</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">ABS(D10-E10)</f>
+        <v>9514</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">MIN(D10:E10)</f>
+        <v>133178</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">F10/G10</f>
+        <v>0.0714382255327457</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>9514</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.941520467836257</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>133178</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">ABS(D11-E11)</f>
+        <v>9518</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">MIN(D11:E11)</f>
+        <v>133178</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">F11/G11</f>
+        <v>0.0714682605235099</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>9518</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.941520467836257</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>867043</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">ABS(D12-E12)</f>
+        <v>11976</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">MIN(D12:E12)</f>
+        <v>867043</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">F12/G12</f>
+        <v>0.013812463741706</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>622</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>11976</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.985535197685632</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1507924</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">ABS(D13-E13)</f>
+        <v>153849</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">MIN(D13:E13)</f>
+        <v>1507924</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">F13/G13</f>
+        <v>0.102027025234694</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1624</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1287</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>153849</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.882745767976394</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>124317</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">ABS(D14-E14)</f>
+        <v>18375</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">MIN(D14:E14)</f>
+        <v>124317</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">F14/G14</f>
+        <v>0.147807620840271</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>18375</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.885057471264368</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>124317</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">ABS(D15-E15)</f>
+        <v>18379</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">MIN(D15:E15)</f>
+        <v>124317</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">F15/G15</f>
+        <v>0.14783979664889</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>18379</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.885057471264368</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>570213</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">ABS(D16-E16)</f>
+        <v>308806</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">MIN(D16:E16)</f>
+        <v>570213</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">F16/G16</f>
+        <v>0.541562538910898</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>308806</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.58086367485182</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1006670</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">ABS(D17-E17)</f>
+        <v>655103</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">MIN(D17:E17)</f>
+        <v>1006670</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">F17/G17</f>
+        <v>0.650762414693991</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1458</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>655103</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.505758157389635</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>120479</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">ABS(D18-E18)</f>
+        <v>22213</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">MIN(D18:E18)</f>
+        <v>120479</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">F18/G18</f>
+        <v>0.18437238024884</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>22213</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.830508474576271</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>120479</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">ABS(D19-E19)</f>
+        <v>22217</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">MIN(D19:E19)</f>
+        <v>120479</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">F19/G19</f>
+        <v>0.18440558105562</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>22217</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.830508474576271</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>566620</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">ABS(D20-E20)</f>
+        <v>312399</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">MIN(D20:E20)</f>
+        <v>566620</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">F20/G20</f>
+        <v>0.551337757227066</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>709</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>314800</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.573119188503804</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="n">
+        <f aca="false">MAX(H3,H20)</f>
+        <v>0.551337757227066</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:AMJ846"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.1"/>
@@ -1913,7 +3328,7 @@
   <sheetData>
     <row r="4" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1929,28 +3344,28 @@
     </row>
     <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L6" s="0"/>
       <c r="AMH6" s="0"/>
@@ -1959,10 +3374,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>18216</v>
@@ -1986,13 +3401,13 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -2187,7 +3602,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">AVERAGE(D11:D26)</f>
@@ -2196,7 +3611,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">MIN(D11:D26)</f>
@@ -2205,7 +3620,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">MAX(D11:D26)</f>
@@ -2214,7 +3629,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="n">
         <f aca="false">STDEV(D11:D26)</f>
@@ -2223,7 +3638,7 @@
     </row>
     <row r="34" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2240,17 +3655,17 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="0" t="n">
         <v>3123145</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H36" s="7"/>
       <c r="J36" s="0" t="n">
@@ -2260,7 +3675,7 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2278,46 +3693,46 @@
     <row r="40" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,7 +3776,7 @@
         <v>6279</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,7 +3820,7 @@
         <v>3570</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,7 +3864,7 @@
         <v>3132</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,7 +3908,7 @@
         <v>3420</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +3952,7 @@
         <v>3376</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,7 +3996,7 @@
         <v>2827</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +4040,7 @@
         <v>3438</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,7 +4084,7 @@
         <v>3365</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +4128,7 @@
         <v>3397</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +4172,7 @@
         <v>3573</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,7 +4216,7 @@
         <v>3282</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +4260,7 @@
         <v>3369</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +4304,7 @@
         <v>3330</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,7 +4348,7 @@
         <v>3456</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +4392,7 @@
         <v>3209</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,7 +4436,7 @@
         <v>3754</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +4480,7 @@
         <v>3592</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,7 +4524,7 @@
         <v>3586</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,7 +4568,7 @@
         <v>3609</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,7 +4612,7 @@
         <v>3641</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +4656,7 @@
         <v>3323</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +4700,7 @@
         <v>3410</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,7 +4744,7 @@
         <v>3516</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +4788,7 @@
         <v>3540</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +4832,7 @@
         <v>3651</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +4876,7 @@
         <v>3351</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,7 +4920,7 @@
         <v>3516</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="O68" s="0"/>
       <c r="P68" s="0"/>
@@ -3575,7 +4990,7 @@
         <v>3402</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +5034,7 @@
         <v>3643</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,7 +5078,7 @@
         <v>3434</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +5122,7 @@
         <v>3439</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,7 +5166,7 @@
         <v>3538</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +5210,7 @@
         <v>3392</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +5254,7 @@
         <v>3518</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +5298,7 @@
         <v>3374</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,7 +5342,7 @@
         <v>3387</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,25 +5352,25 @@
     </row>
     <row r="79" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,25 +5405,25 @@
     </row>
     <row r="81" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,25 +5458,25 @@
     </row>
     <row r="83" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,7 +5511,7 @@
     </row>
     <row r="87" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4113,46 +5528,46 @@
     </row>
     <row r="88" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,7 +5611,7 @@
         <v>16664</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +5655,7 @@
         <v>14977</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4284,7 +5699,7 @@
         <v>15069</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +5743,7 @@
         <v>14544</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,7 +5787,7 @@
         <v>16411</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +5831,7 @@
         <v>14444</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +5875,7 @@
         <v>9527</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,7 +5919,7 @@
         <v>13863</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +5963,7 @@
         <v>14378</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +6007,7 @@
         <v>13588</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +6051,7 @@
         <v>13823</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +6095,7 @@
         <v>13911</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +6139,7 @@
         <v>12954</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +6183,7 @@
         <v>12700</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +6227,7 @@
         <v>11882</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +6271,7 @@
         <v>10808</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,7 +6315,7 @@
         <v>11095</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +6359,7 @@
         <v>11521</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,7 +6403,7 @@
         <v>11608</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +6447,7 @@
         <v>12587</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +6491,7 @@
         <v>11755</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +6535,7 @@
         <v>11366</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,7 +6579,7 @@
         <v>10872</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +6623,7 @@
         <v>11400</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,7 +6667,7 @@
         <v>12589</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,7 +6711,7 @@
         <v>11611</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +6755,7 @@
         <v>10765</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +6799,7 @@
         <v>10510</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +6843,7 @@
         <v>12628</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +6887,7 @@
         <v>11717</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +6931,7 @@
         <v>10791</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +6975,7 @@
         <v>11488</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,7 +7019,7 @@
         <v>13434</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +7063,7 @@
         <v>13725</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,7 +7107,7 @@
         <v>5980</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +7151,7 @@
         <v>13525</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,25 +7161,25 @@
     </row>
     <row r="126" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,25 +7214,25 @@
     </row>
     <row r="128" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5852,25 +7267,25 @@
     </row>
     <row r="130" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,7 +7320,7 @@
     </row>
     <row r="134" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5922,46 +7337,46 @@
     </row>
     <row r="135" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,7 +7420,7 @@
         <v>21500</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,7 +7464,7 @@
         <v>15711</v>
       </c>
       <c r="N138" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,7 +7508,7 @@
         <v>45100</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,7 +7552,7 @@
         <v>35175</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +7596,7 @@
         <v>47142</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +7640,7 @@
         <v>47464</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +7684,7 @@
         <v>44269</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,7 +7728,7 @@
         <v>48166</v>
       </c>
       <c r="N144" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,7 +7772,7 @@
         <v>45954</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,7 +7816,7 @@
         <v>51600</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +7860,7 @@
         <v>46818</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +7904,7 @@
         <v>41666</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,7 +7948,7 @@
         <v>47454</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +7992,7 @@
         <v>42650</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,7 +8036,7 @@
         <v>40833</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,7 +8080,7 @@
         <v>46423</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +8124,7 @@
         <v>56892</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +8168,7 @@
         <v>45535</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,7 +8212,7 @@
         <v>50392</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +8256,7 @@
         <v>45692</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,7 +8300,7 @@
         <v>51142</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +8344,7 @@
         <v>45214</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,7 +8388,7 @@
         <v>50214</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,7 +8432,7 @@
         <v>47038</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,7 +8476,7 @@
         <v>55000</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,7 +8520,7 @@
         <v>44714</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,7 +8564,7 @@
         <v>50678</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,7 +8608,7 @@
         <v>44464</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +8652,7 @@
         <v>51384</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,7 +8696,7 @@
         <v>43166</v>
       </c>
       <c r="N166" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +8740,7 @@
         <v>51357</v>
       </c>
       <c r="N167" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,7 +8784,7 @@
         <v>44428</v>
       </c>
       <c r="N168" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,7 +8828,7 @@
         <v>47866</v>
       </c>
       <c r="N169" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +8872,7 @@
         <v>46269</v>
       </c>
       <c r="N170" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,7 +8916,7 @@
         <v>51071</v>
       </c>
       <c r="N171" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,7 +8960,7 @@
         <v>47076</v>
       </c>
       <c r="N172" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,25 +8970,25 @@
     </row>
     <row r="174" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M174" s="11" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,25 +9023,25 @@
     </row>
     <row r="176" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,25 +9076,25 @@
     </row>
     <row r="178" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,7 +9129,7 @@
     </row>
     <row r="182" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7731,46 +9146,46 @@
     </row>
     <row r="183" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,7 +9229,7 @@
         <v>32077</v>
       </c>
       <c r="N185" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7858,7 +9273,7 @@
         <v>251785</v>
       </c>
       <c r="N186" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,7 +9317,7 @@
         <v>105499</v>
       </c>
       <c r="N187" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +9361,7 @@
         <v>98571</v>
       </c>
       <c r="N188" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +9405,7 @@
         <v>119916</v>
       </c>
       <c r="N189" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8034,7 +9449,7 @@
         <v>114166</v>
       </c>
       <c r="N190" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,7 +9493,7 @@
         <v>97166</v>
       </c>
       <c r="N191" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,7 +9537,7 @@
         <v>107166</v>
       </c>
       <c r="N192" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8166,7 +9581,7 @@
         <v>112300</v>
       </c>
       <c r="N193" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,7 +9625,7 @@
         <v>101100</v>
       </c>
       <c r="N194" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,7 +9669,7 @@
         <v>99899</v>
       </c>
       <c r="N195" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +9713,7 @@
         <v>102800</v>
       </c>
       <c r="N196" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,7 +9757,7 @@
         <v>95600</v>
       </c>
       <c r="N197" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,7 +9801,7 @@
         <v>96300</v>
       </c>
       <c r="N198" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,7 +9845,7 @@
         <v>106100</v>
       </c>
       <c r="N199" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +9889,7 @@
         <v>101333</v>
       </c>
       <c r="N200" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,7 +9933,7 @@
         <v>118166</v>
       </c>
       <c r="N201" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,7 +9977,7 @@
         <v>91142</v>
       </c>
       <c r="N202" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,7 +10021,7 @@
         <v>117499</v>
       </c>
       <c r="N203" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,7 +10065,7 @@
         <v>99916</v>
       </c>
       <c r="N204" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8694,7 +10109,7 @@
         <v>119583</v>
       </c>
       <c r="N205" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,7 +10153,7 @@
         <v>90500</v>
       </c>
       <c r="N206" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,7 +10197,7 @@
         <v>116083</v>
       </c>
       <c r="N207" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +10241,7 @@
         <v>88785</v>
       </c>
       <c r="N208" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8870,7 +10285,7 @@
         <v>93500</v>
       </c>
       <c r="N209" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +10329,7 @@
         <v>104333</v>
       </c>
       <c r="N210" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,7 +10373,7 @@
         <v>103714</v>
       </c>
       <c r="N211" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,7 +10417,7 @@
         <v>106166</v>
       </c>
       <c r="N212" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,7 +10461,7 @@
         <v>112166</v>
       </c>
       <c r="N213" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,7 +10505,7 @@
         <v>108500</v>
       </c>
       <c r="N214" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9134,7 +10549,7 @@
         <v>117166</v>
       </c>
       <c r="N215" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +10593,7 @@
         <v>86500</v>
       </c>
       <c r="N216" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,7 +10637,7 @@
         <v>120250</v>
       </c>
       <c r="N217" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,7 +10681,7 @@
         <v>99333</v>
       </c>
       <c r="N218" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9310,7 +10725,7 @@
         <v>117666</v>
       </c>
       <c r="N219" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,7 +10769,7 @@
         <v>100249</v>
       </c>
       <c r="N220" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,25 +10779,25 @@
     </row>
     <row r="222" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,25 +10832,25 @@
     </row>
     <row r="224" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9470,25 +10885,25 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L226" s="0" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M226" s="0" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="227" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,7 +10938,7 @@
     </row>
     <row r="230" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9540,46 +10955,46 @@
     </row>
     <row r="231" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J231" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K231" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L231" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N231" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,7 +11038,7 @@
         <v>58230</v>
       </c>
       <c r="N233" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,7 +11082,7 @@
         <v>41441</v>
       </c>
       <c r="N234" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9711,7 +11126,7 @@
         <v>192000</v>
       </c>
       <c r="N235" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9755,7 +11170,7 @@
         <v>203666</v>
       </c>
       <c r="N236" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9799,7 +11214,7 @@
         <v>129500</v>
       </c>
       <c r="N237" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9843,7 +11258,7 @@
         <v>158875</v>
       </c>
       <c r="N238" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9887,7 +11302,7 @@
         <v>297250</v>
       </c>
       <c r="N239" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,7 +11346,7 @@
         <v>185833</v>
       </c>
       <c r="N240" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9975,7 +11390,7 @@
         <v>217250</v>
       </c>
       <c r="N241" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10019,7 +11434,7 @@
         <v>220000</v>
       </c>
       <c r="N242" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10063,7 +11478,7 @@
         <v>214250</v>
       </c>
       <c r="N243" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,7 +11522,7 @@
         <v>228000</v>
       </c>
       <c r="N244" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10151,7 +11566,7 @@
         <v>224250</v>
       </c>
       <c r="N245" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10195,7 +11610,7 @@
         <v>218749</v>
       </c>
       <c r="N246" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10239,7 +11654,7 @@
         <v>208250</v>
       </c>
       <c r="N247" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10283,7 +11698,7 @@
         <v>175000</v>
       </c>
       <c r="N248" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10327,7 +11742,7 @@
         <v>183333</v>
       </c>
       <c r="N249" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10371,7 +11786,7 @@
         <v>170833</v>
       </c>
       <c r="N250" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +11830,7 @@
         <v>161000</v>
       </c>
       <c r="N251" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10459,7 +11874,7 @@
         <v>158999</v>
       </c>
       <c r="N252" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,7 +11918,7 @@
         <v>133250</v>
       </c>
       <c r="N253" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10547,7 +11962,7 @@
         <v>168666</v>
       </c>
       <c r="N254" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10591,7 +12006,7 @@
         <v>165500</v>
       </c>
       <c r="N255" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10635,7 +12050,7 @@
         <v>158999</v>
       </c>
       <c r="N256" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10679,7 +12094,7 @@
         <v>155666</v>
       </c>
       <c r="N257" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10723,7 +12138,7 @@
         <v>168500</v>
       </c>
       <c r="N258" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10767,7 +12182,7 @@
         <v>200166</v>
       </c>
       <c r="N259" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10811,7 +12226,7 @@
         <v>185999</v>
       </c>
       <c r="N260" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,7 +12270,7 @@
         <v>185500</v>
       </c>
       <c r="N261" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,7 +12314,7 @@
         <v>204333</v>
       </c>
       <c r="N262" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10943,7 +12358,7 @@
         <v>145875</v>
       </c>
       <c r="N263" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,7 +12402,7 @@
         <v>177333</v>
       </c>
       <c r="N264" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11031,7 +12446,7 @@
         <v>218000</v>
       </c>
       <c r="N265" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11075,7 +12490,7 @@
         <v>264000</v>
       </c>
       <c r="N266" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,7 +12534,7 @@
         <v>159000</v>
       </c>
       <c r="N267" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11163,7 +12578,7 @@
         <v>270500</v>
       </c>
       <c r="N268" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11173,25 +12588,25 @@
     </row>
     <row r="270" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,25 +12641,25 @@
     </row>
     <row r="272" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11279,25 +12694,25 @@
     </row>
     <row r="274" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11332,7 +12747,7 @@
     </row>
     <row r="278" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -11349,46 +12764,46 @@
     </row>
     <row r="279" s="8" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I279" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J279" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K279" s="8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L279" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M279" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N279" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,7 +12847,7 @@
         <v>132045</v>
       </c>
       <c r="N281" s="0" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11476,7 +12891,7 @@
         <v>200914</v>
       </c>
       <c r="N282" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,7 +12935,7 @@
         <v>446800</v>
       </c>
       <c r="N283" s="0" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11564,7 +12979,7 @@
         <v>486400</v>
       </c>
       <c r="N284" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11608,7 +13023,7 @@
         <v>660000</v>
       </c>
       <c r="N285" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,7 +13067,7 @@
         <v>354857</v>
       </c>
       <c r="N286" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,7 +13111,7 @@
         <v>538000</v>
       </c>
       <c r="N287" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11740,7 +13155,7 @@
         <v>459600</v>
       </c>
       <c r="N288" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11784,7 +13199,7 @@
         <v>686666</v>
       </c>
       <c r="N289" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,7 +13243,7 @@
         <v>618666</v>
       </c>
       <c r="N290" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11872,7 +13287,7 @@
         <v>454500</v>
       </c>
       <c r="N291" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11916,7 +13331,7 @@
         <v>601333</v>
       </c>
       <c r="N292" s="0" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11960,7 +13375,7 @@
         <v>447000</v>
       </c>
       <c r="N293" s="0" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12004,7 +13419,7 @@
         <v>572666</v>
       </c>
       <c r="N294" s="0" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12048,7 +13463,7 @@
         <v>310666</v>
       </c>
       <c r="N295" s="0" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12092,7 +13507,7 @@
         <v>361333</v>
       </c>
       <c r="N296" s="0" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,7 +13551,7 @@
         <v>513200</v>
       </c>
       <c r="N297" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12180,7 +13595,7 @@
         <v>450400</v>
       </c>
       <c r="N298" s="0" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12224,7 +13639,7 @@
         <v>502400</v>
       </c>
       <c r="N299" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12268,7 +13683,7 @@
         <v>424800</v>
       </c>
       <c r="N300" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,7 +13727,7 @@
         <v>516799</v>
       </c>
       <c r="N301" s="0" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,7 +13771,7 @@
         <v>448800</v>
       </c>
       <c r="N302" s="0" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12400,7 +13815,7 @@
         <v>492799</v>
       </c>
       <c r="N303" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,7 +13859,7 @@
         <v>432000</v>
       </c>
       <c r="N304" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,7 +13903,7 @@
         <v>469600</v>
       </c>
       <c r="N305" s="0" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12532,7 +13947,7 @@
         <v>442000</v>
       </c>
       <c r="N306" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12576,7 +13991,7 @@
         <v>506400</v>
       </c>
       <c r="N307" s="0" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12620,7 +14035,7 @@
         <v>441200</v>
       </c>
       <c r="N308" s="0" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,7 +14079,7 @@
         <v>608000</v>
       </c>
       <c r="N309" s="0" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12708,7 +14123,7 @@
         <v>458000</v>
       </c>
       <c r="N310" s="0" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,7 +14167,7 @@
         <v>627500</v>
       </c>
       <c r="N311" s="0" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12796,7 +14211,7 @@
         <v>536500</v>
       </c>
       <c r="N312" s="0" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12840,7 +14255,7 @@
         <v>513200</v>
       </c>
       <c r="N313" s="0" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,7 +14299,7 @@
         <v>530000</v>
       </c>
       <c r="N314" s="0" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12928,7 +14343,7 @@
         <v>503200</v>
       </c>
       <c r="N315" s="0" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,7 +14387,7 @@
         <v>429999</v>
       </c>
       <c r="N316" s="0" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12982,25 +14397,25 @@
     </row>
     <row r="318" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="M318" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13035,25 +14450,25 @@
     </row>
     <row r="320" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,25 +14503,25 @@
     </row>
     <row r="322" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="M322" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,7 +14556,7 @@
     </row>
     <row r="325" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -13152,7 +14567,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B326" s="10" t="n">
         <f aca="false">K80</f>
@@ -13178,10 +14593,14 @@
         <f aca="false">K319</f>
         <v>0.823666666666666</v>
       </c>
+      <c r="I326" s="0" t="n">
+        <f aca="false">AVERAGE(B326:G326)</f>
+        <v>0.849342592592592</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B327" s="12" t="n">
         <f aca="false">L80</f>
@@ -13210,7 +14629,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B328" s="5" t="n">
         <f aca="false">M80</f>
@@ -13239,7 +14658,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B329" s="10" t="n">
         <f aca="false">J80</f>
@@ -13265,10 +14684,14 @@
         <f aca="false">J319</f>
         <v>0.0959722222222223</v>
       </c>
+      <c r="I329" s="0" t="n">
+        <f aca="false">AVERAGE(B329:G329)</f>
+        <v>0.122481481481481</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B330" s="10" t="n">
         <f aca="false">J82</f>
@@ -13294,10 +14717,13 @@
         <f aca="false">J321</f>
         <v>0.001</v>
       </c>
+      <c r="I330" s="0" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B331" s="10" t="n">
         <f aca="false">J84</f>
@@ -13326,7 +14752,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B332" s="0" t="n">
         <f aca="false">A78</f>
@@ -13376,7 +14802,7 @@
     </row>
     <row r="340" s="13" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -13389,28 +14815,28 @@
     </row>
     <row r="341" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,7 +14844,7 @@
         <v>250</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14359,13 +15785,13 @@
     </row>
     <row r="379" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F379" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14384,13 +15810,13 @@
     </row>
     <row r="381" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F381" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14409,13 +15835,13 @@
     </row>
     <row r="383" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F383" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14437,7 +15863,7 @@
         <v>251</v>
       </c>
       <c r="D387" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15378,13 +16804,13 @@
     </row>
     <row r="424" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F424" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15403,13 +16829,13 @@
     </row>
     <row r="426" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F426" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15428,13 +16854,13 @@
     </row>
     <row r="428" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F428" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15456,7 +16882,7 @@
         <v>252</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16397,13 +17823,13 @@
     </row>
     <row r="470" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F470" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16422,13 +17848,13 @@
     </row>
     <row r="472" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F472" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16447,13 +17873,13 @@
     </row>
     <row r="474" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F474" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16475,7 +17901,7 @@
         <v>253</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17416,13 +18842,13 @@
     </row>
     <row r="516" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F516" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17441,13 +18867,13 @@
     </row>
     <row r="518" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F518" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17466,13 +18892,13 @@
     </row>
     <row r="520" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F520" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17494,7 +18920,7 @@
         <v>254</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18435,13 +19861,13 @@
     </row>
     <row r="561" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F561" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H561" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18460,13 +19886,13 @@
     </row>
     <row r="563" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F563" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H563" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18485,13 +19911,13 @@
     </row>
     <row r="565" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F565" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H565" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18513,7 +19939,7 @@
         <v>255</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19454,13 +20880,13 @@
     </row>
     <row r="606" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F606" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G606" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H606" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19479,13 +20905,13 @@
     </row>
     <row r="608" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F608" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G608" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H608" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19504,13 +20930,13 @@
     </row>
     <row r="610" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F610" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G610" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H610" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20470,13 +21896,13 @@
     </row>
     <row r="651" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F651" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G651" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H651" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20495,13 +21921,13 @@
     </row>
     <row r="653" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F653" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G653" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H653" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20520,13 +21946,13 @@
     </row>
     <row r="655" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F655" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G655" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H655" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21486,13 +22912,13 @@
     </row>
     <row r="696" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F696" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G696" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H696" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21511,13 +22937,13 @@
     </row>
     <row r="698" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F698" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G698" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H698" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21536,13 +22962,13 @@
     </row>
     <row r="700" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F700" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G700" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H700" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22502,13 +23928,13 @@
     </row>
     <row r="742" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F742" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G742" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H742" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22527,13 +23953,13 @@
     </row>
     <row r="744" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F744" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G744" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H744" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22552,13 +23978,13 @@
     </row>
     <row r="746" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F746" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G746" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H746" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23518,13 +24944,13 @@
     </row>
     <row r="787" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F787" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G787" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H787" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23543,13 +24969,13 @@
     </row>
     <row r="789" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F789" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G789" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H789" s="3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23568,13 +24994,13 @@
     </row>
     <row r="791" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F791" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G791" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H791" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23593,7 +25019,7 @@
     </row>
     <row r="799" s="13" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23610,15 +25036,15 @@
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L800" s="0" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="M800" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B801" s="10" t="n">
         <f aca="false">F380</f>
@@ -23671,7 +25097,7 @@
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B802" s="15" t="n">
         <f aca="false">G380</f>
@@ -23724,7 +25150,7 @@
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B803" s="15" t="n">
         <f aca="false">H380</f>
@@ -23777,7 +25203,7 @@
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B804" s="0" t="n">
         <f aca="false">A342</f>
@@ -23820,9 +25246,742 @@
         <v>259</v>
       </c>
     </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C829" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D829" s="0" t="n">
+        <v>191492</v>
+      </c>
+      <c r="E829" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F829" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="G829" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H829" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="I829" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J829" s="0" t="n">
+        <v>25509</v>
+      </c>
+      <c r="K829" s="0" t="n">
+        <v>0.889025893958076</v>
+      </c>
+      <c r="L829" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M829" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N829" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B830" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C830" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D830" s="0" t="n">
+        <v>198038</v>
+      </c>
+      <c r="E830" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F830" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="G830" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H830" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="I830" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J830" s="0" t="n">
+        <v>18963</v>
+      </c>
+      <c r="K830" s="0" t="n">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="L830" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M830" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N830" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C831" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D831" s="0" t="n">
+        <v>556384</v>
+      </c>
+      <c r="E831" s="0" t="n">
+        <v>566894</v>
+      </c>
+      <c r="F831" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="G831" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="H831" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="I831" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J831" s="0" t="n">
+        <v>10510</v>
+      </c>
+      <c r="K831" s="0" t="n">
+        <v>0.975381585425899</v>
+      </c>
+      <c r="L831" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M831" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N831" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B832" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C832" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D832" s="0" t="n">
+        <v>220006</v>
+      </c>
+      <c r="E832" s="0" t="n">
+        <v>220006</v>
+      </c>
+      <c r="F832" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="G832" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="H832" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="I832" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J832" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K832" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L832" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M832" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N832" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C833" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D833" s="0" t="n">
+        <v>160609</v>
+      </c>
+      <c r="E833" s="0" t="n">
+        <v>217001</v>
+      </c>
+      <c r="F833" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="G833" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H833" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="I833" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="J833" s="0" t="n">
+        <v>84102</v>
+      </c>
+      <c r="K833" s="0" t="n">
+        <v>0.574344023323615</v>
+      </c>
+      <c r="L833" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M833" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N833" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B834" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C834" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D834" s="0" t="n">
+        <v>1557789</v>
+      </c>
+      <c r="E834" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F834" s="0" t="n">
+        <v>1677</v>
+      </c>
+      <c r="G834" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="H834" s="0" t="n">
+        <v>1271</v>
+      </c>
+      <c r="I834" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="J834" s="0" t="n">
+        <v>103984</v>
+      </c>
       <c r="K834" s="0" t="n">
-        <v>1</v>
+        <v>0.92294991744634</v>
+      </c>
+      <c r="L834" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M834" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N834" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B835" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C835" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D835" s="0" t="n">
+        <v>1650036</v>
+      </c>
+      <c r="E835" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F835" s="0" t="n">
+        <v>1766</v>
+      </c>
+      <c r="G835" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="H835" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="I835" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J835" s="0" t="n">
+        <v>11737</v>
+      </c>
+      <c r="K835" s="0" t="n">
+        <v>0.992772245422422</v>
+      </c>
+      <c r="L835" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M835" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N835" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B836" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C836" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D836" s="0" t="n">
+        <v>133178</v>
+      </c>
+      <c r="E836" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F836" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G836" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H836" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="I836" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J836" s="0" t="n">
+        <v>9514</v>
+      </c>
+      <c r="K836" s="0" t="n">
+        <v>0.941520467836257</v>
+      </c>
+      <c r="L836" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M836" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N836" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B837" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C837" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D837" s="0" t="n">
+        <v>133178</v>
+      </c>
+      <c r="E837" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F837" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G837" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H837" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="I837" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J837" s="0" t="n">
+        <v>9518</v>
+      </c>
+      <c r="K837" s="0" t="n">
+        <v>0.941520467836257</v>
+      </c>
+      <c r="L837" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M837" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N837" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B838" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C838" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D838" s="0" t="n">
+        <v>867043</v>
+      </c>
+      <c r="E838" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F838" s="0" t="n">
+        <v>876</v>
+      </c>
+      <c r="G838" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="H838" s="0" t="n">
+        <v>622</v>
+      </c>
+      <c r="I838" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J838" s="0" t="n">
+        <v>11976</v>
+      </c>
+      <c r="K838" s="0" t="n">
+        <v>0.985535197685632</v>
+      </c>
+      <c r="L838" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M838" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N838" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B839" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C839" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D839" s="0" t="n">
+        <v>1507924</v>
+      </c>
+      <c r="E839" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F839" s="0" t="n">
+        <v>1624</v>
+      </c>
+      <c r="G839" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="H839" s="0" t="n">
+        <v>1287</v>
+      </c>
+      <c r="I839" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="J839" s="0" t="n">
+        <v>153849</v>
+      </c>
+      <c r="K839" s="0" t="n">
+        <v>0.882745767976394</v>
+      </c>
+      <c r="L839" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M839" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N839" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B840" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C840" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D840" s="0" t="n">
+        <v>124317</v>
+      </c>
+      <c r="E840" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F840" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G840" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H840" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="I840" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J840" s="0" t="n">
+        <v>18375</v>
+      </c>
+      <c r="K840" s="0" t="n">
+        <v>0.885057471264368</v>
+      </c>
+      <c r="L840" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M840" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N840" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B841" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C841" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D841" s="0" t="n">
+        <v>124317</v>
+      </c>
+      <c r="E841" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F841" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G841" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H841" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="I841" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J841" s="0" t="n">
+        <v>18379</v>
+      </c>
+      <c r="K841" s="0" t="n">
+        <v>0.885057471264368</v>
+      </c>
+      <c r="L841" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M841" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N841" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B842" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C842" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D842" s="0" t="n">
+        <v>570213</v>
+      </c>
+      <c r="E842" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F842" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="G842" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="H842" s="0" t="n">
+        <v>708</v>
+      </c>
+      <c r="I842" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="J842" s="0" t="n">
+        <v>308806</v>
+      </c>
+      <c r="K842" s="0" t="n">
+        <v>0.58086367485182</v>
+      </c>
+      <c r="L842" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M842" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N842" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C843" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D843" s="0" t="n">
+        <v>1006670</v>
+      </c>
+      <c r="E843" s="0" t="n">
+        <v>1661773</v>
+      </c>
+      <c r="F843" s="0" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G843" s="0" t="n">
+        <v>1775</v>
+      </c>
+      <c r="H843" s="0" t="n">
+        <v>1458</v>
+      </c>
+      <c r="I843" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="J843" s="0" t="n">
+        <v>655103</v>
+      </c>
+      <c r="K843" s="0" t="n">
+        <v>0.505758157389635</v>
+      </c>
+      <c r="L843" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M843" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N843" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C844" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D844" s="0" t="n">
+        <v>120479</v>
+      </c>
+      <c r="E844" s="0" t="n">
+        <v>142692</v>
+      </c>
+      <c r="F844" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G844" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H844" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="I844" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J844" s="0" t="n">
+        <v>22213</v>
+      </c>
+      <c r="K844" s="0" t="n">
+        <v>0.830508474576271</v>
+      </c>
+      <c r="L844" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M844" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N844" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C845" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D845" s="0" t="n">
+        <v>120479</v>
+      </c>
+      <c r="E845" s="0" t="n">
+        <v>142696</v>
+      </c>
+      <c r="F845" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G845" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H845" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="I845" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J845" s="0" t="n">
+        <v>22217</v>
+      </c>
+      <c r="K845" s="0" t="n">
+        <v>0.830508474576271</v>
+      </c>
+      <c r="L845" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M845" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N845" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C846" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D846" s="0" t="n">
+        <v>566620</v>
+      </c>
+      <c r="E846" s="0" t="n">
+        <v>879019</v>
+      </c>
+      <c r="F846" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="G846" s="0" t="n">
+        <v>885</v>
+      </c>
+      <c r="H846" s="0" t="n">
+        <v>709</v>
+      </c>
+      <c r="I846" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="J846" s="0" t="n">
+        <v>314800</v>
+      </c>
+      <c r="K846" s="0" t="n">
+        <v>0.573119188503804</v>
+      </c>
+      <c r="L846" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M846" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="N846" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -23850,4 +26009,1925 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P86"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.793579489426975</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.552511415525114</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.976190476190476</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>21729</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>26586</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>-1.223</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>42553.191</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>111148</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.794267492577796</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.551569506726457</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.988636363636364</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>21670</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>28115</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>-1.296</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>37735.849</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>93547</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.796464378983509</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.510204081632653</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.981818181818182</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>21806</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>32503</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>31746.032</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>80952</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.79254172906242</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.514522821576763</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.971698113207547</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>21699</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>31569</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>-1.454</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>31746.032</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>72380</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.822515619924719</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0.986111111111111</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>21524</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>27089</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>-1.258</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>51282.051</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>104358</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>25887</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.786629446711044</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.523605150214592</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0.969387755102041</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>21980</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>28981</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>-1.318</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>34482.759</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>84827</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>29997</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>24776</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.795026746754788</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0.566820276497696</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0.939024390243902</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>21773</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>26776</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>-1.229</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>43478.261</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>113347</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.769124741557546</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.482558139534884</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>18972</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>27840</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>-1.466</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>17391.304</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>39895</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.774073700151439</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0.530927835051546</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0.976190476190476</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>19168</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>23986</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>55555.556</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>120500</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.771877397730485</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.976190476190476</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>19114</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>23218</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>-1.214</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>55555.556</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>108611</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.778813289459718</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.519230769230769</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>18343</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>27843</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>-1.517</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>83333.333</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>151250</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>25887</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0.775566611387507</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.505494505494506</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>19642</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>27605</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>-1.404</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>62500</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>134250</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>24776</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>24765</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.77216850689328</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.481927710843373</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0.939024390243902</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>19127</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>28410</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>-1.484</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>71428.571</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>155214</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.774432889375418</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.51010101010101</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0.988636363636364</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>19101</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>24202</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>-1.266</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>12820.513</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>30910</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.771498074194202</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.505154639175258</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0.965909090909091</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>19029</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>25009</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>-1.313</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>54054.054</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>109081</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.779551898356392</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0.5125</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0.986111111111111</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>18284</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>25835</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>-1.412</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>76923.077</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>133999</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>25887</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.775368638021246</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>19561</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>28786</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>-1.471</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>32786.885</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>69868</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>24776</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>24569</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.773898064646874</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0.98780487804878</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>19094</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>28182</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>-1.475</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>71428.571</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>166714</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.774297772662103</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>0.490740740740741</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>0.981132075471698</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>19172</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>28530</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>-1.487</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>41666.667</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>80916</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0.786454352441614</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0.565934065934066</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>0.944444444444444</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>18521</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>22942</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>-1.238</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>58823.529</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>104529</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>25887</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0.779671056528521</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>0.979591836734694</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>19744</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>28456</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>44444.444</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>92222</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>24776</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>24760</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0.777212532299742</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0.526041666666667</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>0.963414634146341</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>19250</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>22993</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>-1.193</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>55555.556</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>117944</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0.779686206237659</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>18362</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>23081</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>-1.256</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>62500</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>115749</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>25887</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0.77546990996683</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0.495098039215686</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0.969387755102041</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>19638</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>29295</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>-1.491</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>47619.048</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>109857</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>24776</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>24761</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0.774007307669015</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0.526595744680851</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>19171</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>24124</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>-1.257</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>58823.529</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>143941</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <f aca="false">AVERAGE(G57:G81)</f>
+        <v>0.781767914120834</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <f aca="false">AVERAGE(I57:I81)</f>
+        <v>0.970955000287917</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <f aca="false">MIN(G57:G81)</f>
+        <v>0.769124741557546</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">MIN(I57:I81)</f>
+        <v>0.939024390243902</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <f aca="false">MAX(G57:G81)</f>
+        <v>0.822515619924719</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">MAX(I57:I81)</f>
+        <v>0.988636363636364</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <f aca="false">STDEV(G57:G81)</f>
+        <v>0.011933908008895</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <f aca="false">STDEV(I57:I81)</f>
+        <v>0.0143756635639463</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>